--- a/data/observations/obs_tracer_per_layer.xlsx
+++ b/data/observations/obs_tracer_per_layer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>NAME</t>
   </si>
@@ -33,12 +33,6 @@
     <t>LAYER</t>
   </si>
   <si>
-    <t>SAMPLE_TYPE</t>
-  </si>
-  <si>
-    <t>B10-1</t>
-  </si>
-  <si>
     <t>B10-2</t>
   </si>
   <si>
@@ -72,33 +66,18 @@
     <t>B37</t>
   </si>
   <si>
-    <t>B38-1</t>
-  </si>
-  <si>
     <t>B8-1</t>
   </si>
   <si>
     <t>B8-2</t>
   </si>
   <si>
-    <t>B9-1</t>
-  </si>
-  <si>
     <t>B9-2</t>
   </si>
   <si>
     <t>B9-4</t>
   </si>
   <si>
-    <t>KB1-1</t>
-  </si>
-  <si>
-    <t>KB4-1</t>
-  </si>
-  <si>
-    <t>KB4-2</t>
-  </si>
-  <si>
     <t>KB4-3</t>
   </si>
   <si>
@@ -120,15 +99,9 @@
     <t>NI1405-2</t>
   </si>
   <si>
-    <t>NI1406</t>
-  </si>
-  <si>
     <t>COMMENT</t>
   </si>
   <si>
-    <t>What filter?</t>
-  </si>
-  <si>
     <t>NI1407-2</t>
   </si>
   <si>
@@ -144,9 +117,6 @@
     <t>NI1412-1</t>
   </si>
   <si>
-    <t>NI1412-2</t>
-  </si>
-  <si>
     <t>NI1412-3</t>
   </si>
   <si>
@@ -201,9 +171,6 @@
     <t>NI1608-3</t>
   </si>
   <si>
-    <t>NI1609-1</t>
-  </si>
-  <si>
     <t>NI1609-2</t>
   </si>
   <si>
@@ -225,9 +192,6 @@
     <t>NI1701-1</t>
   </si>
   <si>
-    <t>NI1702-2</t>
-  </si>
-  <si>
     <t>NI1703-1</t>
   </si>
   <si>
@@ -258,7 +222,22 @@
     <t>NI1712-1</t>
   </si>
   <si>
-    <t>Not included in headobs (filter 2 takes presedence over filter 1)</t>
+    <t>NI1406-1</t>
+  </si>
+  <si>
+    <t>Not included in headobs - However, both filter -1 and -2 are located in Layer 1.</t>
+  </si>
+  <si>
+    <t>NI1702-1</t>
+  </si>
+  <si>
+    <t>NI1603-2</t>
+  </si>
+  <si>
+    <t>KB1-2</t>
+  </si>
+  <si>
+    <t>NI1604-3</t>
   </si>
 </sst>
 </file>
@@ -294,8 +273,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,11 +567,10 @@
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,15 +584,12 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>427074.70942299999</v>
@@ -624,13 +600,10 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>427074.70942299999</v>
@@ -639,40 +612,40 @@
         <v>6654805.1742099999</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>427480.544406</v>
+      </c>
+      <c r="C4">
+        <v>6655184.8646900002</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>427074.70942299999</v>
-      </c>
-      <c r="C4">
-        <v>6654805.1742099999</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>427384.17204400001</v>
+      </c>
+      <c r="C5">
+        <v>6655037.1886999998</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
-      </c>
-      <c r="B5">
-        <v>427480.544406</v>
-      </c>
-      <c r="C5">
-        <v>6655184.8646900002</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
       </c>
       <c r="B6">
         <v>427384.17204400001</v>
@@ -681,12 +654,12 @@
         <v>6655037.1886999998</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>427384.17204400001</v>
@@ -695,445 +668,865 @@
         <v>6655037.1886999998</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>427375.04528600001</v>
+      </c>
+      <c r="C8">
+        <v>6655055.46129</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>427384.17204400001</v>
-      </c>
-      <c r="C8">
-        <v>6655037.1886999998</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>427436.22735900001</v>
+      </c>
+      <c r="C9">
+        <v>6654995.7281400003</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>427375.04528600001</v>
-      </c>
-      <c r="C9">
-        <v>6655055.46129</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>427447.84926599998</v>
+      </c>
+      <c r="C10">
+        <v>6655002.2449700003</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>427436.22735900001</v>
-      </c>
-      <c r="C10">
-        <v>6654995.7281400003</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>427448.60130400001</v>
+      </c>
+      <c r="C11">
+        <v>6654991.7577499999</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>427447.84926599998</v>
-      </c>
-      <c r="C11">
-        <v>6655002.2449700003</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>427461.17045699997</v>
+      </c>
+      <c r="C12">
+        <v>6654998.4210900003</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>427448.60130400001</v>
-      </c>
-      <c r="C12">
-        <v>6654991.7577499999</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>427162.88967599999</v>
+      </c>
+      <c r="C13">
+        <v>6654757.2354899999</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>427461.17045699997</v>
-      </c>
-      <c r="C13">
-        <v>6654998.4210900003</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>427162.88967599999</v>
+      </c>
+      <c r="C14">
+        <v>6654757.2354899999</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="F14" t="s">
+      <c r="B15">
+        <v>426918.37400000001</v>
+      </c>
+      <c r="C15">
+        <v>6654803.2980000004</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>426918.37400000001</v>
+      </c>
+      <c r="C16">
+        <v>6654803.2980000004</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>427405.59223499999</v>
+      </c>
+      <c r="C17">
+        <v>6654945.84607</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>427230.095133</v>
+      </c>
+      <c r="C18">
+        <v>6654957.8994800001</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>427230.095133</v>
+      </c>
+      <c r="C19">
+        <v>6654957.8994800001</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>427454.58941900003</v>
+      </c>
+      <c r="C20">
+        <v>6655141.5299500003</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>427454.58941900003</v>
+      </c>
+      <c r="C21">
+        <v>6655141.5299500003</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>427451.88591100002</v>
+      </c>
+      <c r="C22">
+        <v>6655154.5902399998</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>427451.88591100002</v>
+      </c>
+      <c r="C23">
+        <v>6655154.5902399998</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>427471.152459</v>
+      </c>
+      <c r="C24">
+        <v>6655034.1627900004</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>427448.77434300003</v>
+      </c>
+      <c r="C25">
+        <v>6655149.6612200001</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>427437.28213900002</v>
+      </c>
+      <c r="C26">
+        <v>6655127.9236500002</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>427437.28213900002</v>
+      </c>
+      <c r="C27">
+        <v>6655127.9236500002</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>427428.46884500002</v>
+      </c>
+      <c r="C28">
+        <v>6655136.1229299996</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>427428.46884500002</v>
+      </c>
+      <c r="C29">
+        <v>6655136.1229299996</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>427463.52186600002</v>
+      </c>
+      <c r="C30">
+        <v>6655006.3381099999</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>427463.52186600002</v>
+      </c>
+      <c r="C31">
+        <v>6655006.3381099999</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>427456.07263200002</v>
+      </c>
+      <c r="C32">
+        <v>6654986.50868</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>427456.07263200002</v>
+      </c>
+      <c r="C33">
+        <v>6654986.50868</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>427162.88967599999</v>
-      </c>
-      <c r="C15">
-        <v>6654757.2354899999</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>427162.88967599999</v>
-      </c>
-      <c r="C16">
-        <v>6654757.2354899999</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>426918.37400000001</v>
-      </c>
-      <c r="C17">
-        <v>6654803.2980000004</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>426918.37400000001</v>
-      </c>
-      <c r="C18">
-        <v>6654803.2980000004</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>427405.59223499999</v>
-      </c>
-      <c r="C20">
-        <v>6654945.84607</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B34">
+        <v>427456.07263200002</v>
+      </c>
+      <c r="C34">
+        <v>6654986.50868</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B35">
+        <v>427363.30535500002</v>
+      </c>
+      <c r="C35">
+        <v>6655084.6052799998</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B36">
+        <v>427363.30535500002</v>
+      </c>
+      <c r="C36">
+        <v>6655084.6052799998</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B37">
+        <v>427363.30535500002</v>
+      </c>
+      <c r="C37">
+        <v>6655084.6052799998</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B38">
+        <v>427409.62389599998</v>
+      </c>
+      <c r="C38">
+        <v>6654966.5639599999</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B39">
+        <v>427409.62389599998</v>
+      </c>
+      <c r="C39">
+        <v>6654966.5639599999</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B40">
+        <v>427409.62389599998</v>
+      </c>
+      <c r="C40">
+        <v>6654966.5639599999</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41">
+        <v>427358.10100000002</v>
+      </c>
+      <c r="C41">
+        <v>6654952.0810000002</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42">
+        <v>427459.31699999998</v>
+      </c>
+      <c r="C42">
+        <v>6654995.642</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B43">
+        <v>427474.83270700002</v>
+      </c>
+      <c r="C43">
+        <v>6655020.0804300001</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B44">
+        <v>427309.979934</v>
+      </c>
+      <c r="C44">
+        <v>6654937.8266599998</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B45">
+        <v>427309.979934</v>
+      </c>
+      <c r="C45">
+        <v>6654937.8266599998</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B46">
+        <v>427309.979934</v>
+      </c>
+      <c r="C46">
+        <v>6654937.8266599998</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B47">
+        <v>427397.49695300002</v>
+      </c>
+      <c r="C47">
+        <v>6654916.8430199996</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B48">
+        <v>427397.49695300002</v>
+      </c>
+      <c r="C48">
+        <v>6654916.8430199996</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B49">
+        <v>427394.22670100001</v>
+      </c>
+      <c r="C49">
+        <v>6654904.9181599999</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B50">
+        <v>427394.22670100001</v>
+      </c>
+      <c r="C50">
+        <v>6654904.9181599999</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B51">
+        <v>427400.33648499998</v>
+      </c>
+      <c r="C51">
+        <v>6654909.77917</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B52">
+        <v>427400.33648499998</v>
+      </c>
+      <c r="C52">
+        <v>6654909.77917</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B53">
+        <v>427398.293687</v>
+      </c>
+      <c r="C53">
+        <v>6654913.1752399998</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B54">
+        <v>427404.40658499999</v>
+      </c>
+      <c r="C54">
+        <v>6654919.4960700003</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B55">
+        <v>427372.48913200002</v>
+      </c>
+      <c r="C55">
+        <v>6654916.4103499996</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B56">
+        <v>427372.48913200002</v>
+      </c>
+      <c r="C56">
+        <v>6654916.4103499996</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B57">
+        <v>427393.15733900003</v>
+      </c>
+      <c r="C57">
+        <v>6654945.93915</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58">
+        <v>427387.342259</v>
+      </c>
+      <c r="C58">
+        <v>6654954.0704100002</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B59">
+        <v>427397.79165600002</v>
+      </c>
+      <c r="C59">
+        <v>6654929.8353000004</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B60">
+        <v>427397.79165600002</v>
+      </c>
+      <c r="C60">
+        <v>6654929.8353000004</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B61">
+        <v>427191.59464899998</v>
+      </c>
+      <c r="C61">
+        <v>6654964.51009</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B62">
+        <v>427191.59464899998</v>
+      </c>
+      <c r="C62">
+        <v>6654964.51009</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B63">
+        <v>427215.44438599999</v>
+      </c>
+      <c r="C63">
+        <v>6654957.9695800003</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B64">
+        <v>427215.44438599999</v>
+      </c>
+      <c r="C64">
+        <v>6654957.9695800003</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B65">
+        <v>427250.03822699998</v>
+      </c>
+      <c r="C65">
+        <v>6654940.1862300001</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B66">
+        <v>427250.03822699998</v>
+      </c>
+      <c r="C66">
+        <v>6654940.1862300001</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B67">
+        <v>427229.09603199997</v>
+      </c>
+      <c r="C67">
+        <v>6654942.6611099998</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>78</v>
+      <c r="B68">
+        <v>427416.82571</v>
+      </c>
+      <c r="C68">
+        <v>6654931.4033899996</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
